--- a/biology/Médecine/CIM-10_Chapitre_10___Maladies_de_l'appareil_respiratoire/CIM-10_Chapitre_10___Maladies_de_l'appareil_respiratoire.xlsx
+++ b/biology/Médecine/CIM-10_Chapitre_10___Maladies_de_l'appareil_respiratoire/CIM-10_Chapitre_10___Maladies_de_l'appareil_respiratoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_10_:_Maladies_de_l%27appareil_respiratoire</t>
+          <t>CIM-10_Chapitre_10_:_Maladies_de_l'appareil_respiratoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article développe le chapitre X de la classification internationale des maladies.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CIM-10_Chapitre_10_:_Maladies_de_l%27appareil_respiratoire</t>
+          <t>CIM-10_Chapitre_10_:_Maladies_de_l'appareil_respiratoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,48 @@
           <t>Liste des classes du chapitre 10</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">CIM-10 Chapitre 10 : Maladies de l'appareil respiratoire (J00-J99)
-(J00-J06) Affections aiguës des voies respiratoires supérieures
-(J00) Rhinopharyngite aiguë (rhume banal)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_10_:_Maladies_de_l'appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_10_:_Maladies_de_l%27appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>(J00-J06) Affections aiguës des voies respiratoires supérieures</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(J00) Rhinopharyngite aiguë (rhume banal)
 (J01) Sinusite aiguë
 (J01.0) Sinusite maxillaire aiguë
 (J01.1) Sinusite frontale aiguë
@@ -542,9 +591,43 @@
 (J06) Infections aiguës des voies respiratoires supérieures, à localisations multiples et non précisées
 (J06.0) Laryngo-pharyngite aiguë
 (J06.8) Autres infections aiguës des voies respiratoires supérieures, à localisations multiples
-(J06.9) Infection des voies respiratoires supérieures, sans précision
-(J09-J18) Grippe et pneumopathie
-(J09) Grippe, à virus grippal zoonotique ou pandémique identifié
+(J06.9) Infection des voies respiratoires supérieures, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_10_:_Maladies_de_l'appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_10_:_Maladies_de_l%27appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>(J09-J18) Grippe et pneumopathie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(J09) Grippe, à virus grippal zoonotique ou pandémique identifié
 (J10) Grippe, à virus grippal identifié
 (J10.0) Grippe avec pneumopathie, virus grippal identifié
 (J10.1) Grippe avec d'autres manifestations respiratoires, virus grippal identifié
@@ -586,9 +669,43 @@
 (J18.1) Pneumopathie lobaire, sans précision
 (J18.2) Pneumopathie hypostatique, sans précision
 (J18.8) Autres pneumopathies, micro-organisme non précisé
-(J18.9) Pneumopathie, sans précision
-(J20-J22) Autres affections aiguës des voies respiratoires inférieures
-(J20) Bronchite aiguë
+(J18.9) Pneumopathie, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_10_:_Maladies_de_l'appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_10_:_Maladies_de_l%27appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>(J20-J22) Autres affections aiguës des voies respiratoires inférieures</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(J20) Bronchite aiguë
 (J20.0) Bronchite aiguë due à Mycoplasma pneumoniae
 (J20.1) Bronchite aiguë due à Haemophilus influenzae
 (J20.2) Bronchite aiguë due à des streptocoques
@@ -603,9 +720,43 @@
 (J21.0) Bronchiolite aiguë due au virus respiratoire syncytial (VRS)
 (J21.8) Bronchiolite aiguë due à d'autres micro-organismes précisés
 (J21.9) Bronchiolite aiguë, sans précision
-(J22) Infections aiguës des voies respiratoires inférieures, sans précision
-(J30-J39) Autres maladies des voies respiratoires supérieures
-(J30) Rhinite allergique et vasomotrice
+(J22) Infections aiguës des voies respiratoires inférieures, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_10_:_Maladies_de_l'appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_10_:_Maladies_de_l%27appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>(J30-J39) Autres maladies des voies respiratoires supérieures</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(J30) Rhinite allergique et vasomotrice
 (J30.0) Rhinite vasomotrice
 (J30.1) Rhinite allergique due au pollen
 (J30.2) Autres rhinites allergiques saisonnières
@@ -660,9 +811,43 @@
 (J39.2) Autres maladies du pharynx
 (J39.3) Réaction anaphylactique des voies respiratoires supérieures, localisation non précisée
 (J39.8) Autres maladies des voies respiratoires supérieures précisées
-(J39.9) Maladie des voies respiratoires supérieures, sans précision
-(J40-J47) Maladies chroniques des voies respiratoires inférieures
-(J40) Bronchite, non précisée comme aiguë ou chronique
+(J39.9) Maladie des voies respiratoires supérieures, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_10_:_Maladies_de_l'appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_10_:_Maladies_de_l%27appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>(J40-J47) Maladies chroniques des voies respiratoires inférieures</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(J40) Bronchite, non précisée comme aiguë ou chronique
 (J41) Bronchite chronique simple et mucopurulente
 (J41.0) Bronchite chronique simple
 (J41.1) Bronchite chronique mucopurulente
@@ -685,9 +870,43 @@
 (J45.8) Asthme associé
 (J45.9) Asthme, sans précision
 (J46) État de mal asthmatique
-(J47) Bronchectasie
-(J60-J70) Maladies du poumon dues à des agents externes
-(J60) Pneumoconiose des mineurs de charbon
+(J47) Bronchectasie</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_10_:_Maladies_de_l'appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_10_:_Maladies_de_l%27appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>(J60-J70) Maladies du poumon dues à des agents externes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(J60) Pneumoconiose des mineurs de charbon
 Anthracose
 Anthracosilicose
 Poumon des mineurs de charbon
@@ -741,27 +960,129 @@
 (J70.3) Affections pulmonaires interstitielles chroniques, médicamenteuses
 (J70.4) Affection pulmonaire interstitielle, médicamenteuse, sans précision
 (J70.8) Affections respiratoires dues à d'autres agents externes précisés
-(J70.9) Affection respiratoire due à un agent externe, sans précision
-(J80-J84) Autres maladies respiratoires touchant principalement le tissu interstitiel
-(J80) Syndrome de détresse respiratoire de l'adulte
+(J70.9) Affection respiratoire due à un agent externe, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_10_:_Maladies_de_l'appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_10_:_Maladies_de_l%27appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>(J80-J84) Autres maladies respiratoires touchant principalement le tissu interstitiel</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(J80) Syndrome de détresse respiratoire de l'adulte
 (J81) Œdème pulmonaire
 (J82) Eosinophilie pulmonaire, non classée ailleurs
 (J84) Autres affections pulmonaires interstitielles
 (J84.0) Pneumopathies alvéolaires et pariéto-alvéolaires
 (J84.1) Autres affections pulmonaires interstitielles avec fibrose
 (J84.8) Autres affections pulmonaires interstitielles précisées
-(J84.9) Affection pulmonaire interstitielle, sans précision
-(J85-J86) Maladies suppurées et nécrotiques des voies respiratoires inférieures
-(J85) Abcès du poumon et du médiastin
+(J84.9) Affection pulmonaire interstitielle, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_10_:_Maladies_de_l'appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_10_:_Maladies_de_l%27appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>(J85-J86) Maladies suppurées et nécrotiques des voies respiratoires inférieures</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(J85) Abcès du poumon et du médiastin
 (J85.0) Gangrène et nécrose du poumon
 (J85.1) Abcès du poumon avec pneumopathie
 (J85.2) Abcès du poumon sans pneumopathie
 (J85.3) Abcès du médiastin
 (J86) Pyothorax
 (J86.0) Pyothorax avec fistule
-(J86.9) Pyothorax sans fistule
-(J90-J94) Autres affections de la plèvre
-(J90) Epanchement pleural, non classé ailleurs
+(J86.9) Pyothorax sans fistule</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_10_:_Maladies_de_l'appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_10_:_Maladies_de_l%27appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>(J90-J94) Autres affections de la plèvre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(J90) Epanchement pleural, non classé ailleurs
 (J91) Epanchement pleural au cours de maladies classées ailleurs
 (J92) Plaque pleurale
 (J92.0) Plaque pleurale avec asbestose
@@ -776,9 +1097,43 @@
 (J94.1) Fibrothorax
 (J94.2) Hémothorax
 (J94.8) Autres affections pleurales précisées
-(J94.9) Affection pleurale, sans précision
-(J95-J99) Autres maladies de l'appareil respiratoire
-(J95) Troubles respiratoires après un acte à visée diagnostique et thérapeutique, non classés ailleurs
+(J94.9) Affection pleurale, sans précision</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CIM-10_Chapitre_10_:_Maladies_de_l'appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/CIM-10_Chapitre_10_:_Maladies_de_l%27appareil_respiratoire</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des classes du chapitre 10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>(J95-J99) Autres maladies de l'appareil respiratoire</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(J95) Troubles respiratoires après un acte à visée diagnostique et thérapeutique, non classés ailleurs
 (J95.0) Fonctionnement défectueux d'une trachéotomie
 (J95.1) Insuffisance pulmonaire aiguë consécutive à une intervention chirurgicale thoracique
 (J95.2) Insuffisance pulmonaire aiguë consécutive à une intervention chirurgicale non thoracique
